--- a/Program/Other/Sharepoint上傳用/沒轉的欄位/LA$TRXP.xlsx
+++ b/Program/Other/Sharepoint上傳用/沒轉的欄位/LA$TRXP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\99-資料轉換進度\沒轉的欄位\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B630109-4642-4C3C-826B-C458231D50A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BC3FC5-C7ED-49DB-B4D2-4E58220D5944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$BG$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$BH$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="191">
   <si>
     <t>LA$TRXP</t>
   </si>
@@ -623,6 +623,26 @@
   </si>
   <si>
     <t>PAYCOD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式不同的欄位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統為文字格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統長度為8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統長度為5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統長度為2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1002,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG50"/>
+  <dimension ref="A1:BH50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="161.5" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1016,61 +1036,62 @@
     <col min="4" max="4" width="4.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="1.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="10.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="27.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="161.5" style="2" collapsed="1"/>
-    <col min="13" max="13" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="161.5" style="2" collapsed="1"/>
-    <col min="19" max="19" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="161.5" style="2" collapsed="1"/>
-    <col min="25" max="25" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="161.5" style="2" collapsed="1"/>
-    <col min="31" max="31" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="161.5" style="2" collapsed="1"/>
-    <col min="37" max="37" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="15.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="161.5" style="2" collapsed="1"/>
-    <col min="43" max="43" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="15.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="161.5" style="2" collapsed="1"/>
-    <col min="49" max="49" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="15.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="53" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="161.5" style="2" collapsed="1"/>
-    <col min="55" max="55" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="16.375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="59" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="60" max="16384" width="161.5" style="2"/>
+    <col min="7" max="7" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="161.5" style="2" collapsed="1"/>
+    <col min="14" max="14" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="161.5" style="2" collapsed="1"/>
+    <col min="20" max="20" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="16.375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="161.5" style="2" collapsed="1"/>
+    <col min="26" max="26" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="14.125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="161.5" style="2" collapsed="1"/>
+    <col min="32" max="32" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="12" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="161.5" style="2" collapsed="1"/>
+    <col min="38" max="38" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="15.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="43" max="43" width="161.5" style="2" collapsed="1"/>
+    <col min="44" max="44" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="15.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="14.625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="49" max="49" width="161.5" style="2" collapsed="1"/>
+    <col min="50" max="50" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="15.75" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="54" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="161.5" style="2" collapsed="1"/>
+    <col min="56" max="56" width="15.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="20.25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="58" width="16.375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="59" max="60" width="17.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="61" max="16384" width="161.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" ht="30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" ht="30" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1083,8 +1104,11 @@
       <c r="F1" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1100,23 +1124,26 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
+      <c r="G2" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1132,68 +1159,68 @@
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>6</v>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>6</v>
+      <c r="R3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>6</v>
+      <c r="X3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AC3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AD3" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1209,38 +1236,41 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>6</v>
+      <c r="G4" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>6</v>
+      <c r="L4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1256,23 +1286,23 @@
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
@@ -1288,143 +1318,146 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>6</v>
+      <c r="G6" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>6</v>
+      <c r="L6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>6</v>
+      <c r="R6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="W6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="W6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>6</v>
+      <c r="X6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AC6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AC6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>6</v>
+      <c r="AD6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AF6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AI6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AI6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK6" s="4" t="s">
-        <v>6</v>
+      <c r="AJ6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AL6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AN6" s="4" t="s">
+      <c r="AO6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AO6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ6" s="4" t="s">
-        <v>6</v>
+      <c r="AP6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AR6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT6" s="4" t="s">
+      <c r="AU6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AU6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW6" s="4" t="s">
-        <v>6</v>
+      <c r="AV6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AX6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AZ6" s="4" t="s">
+      <c r="BA6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="BA6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="BC6" s="4" t="s">
-        <v>6</v>
+      <c r="BB6" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="BD6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BE6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="BF6" s="4" t="s">
+      <c r="BG6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="BG6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="BH6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>45</v>
       </c>
@@ -1440,23 +1473,26 @@
       <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>6</v>
+      <c r="G7" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>159</v>
       </c>
@@ -1472,23 +1508,23 @@
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="J8" s="4" t="s">
+      <c r="K8" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>162</v>
       </c>
@@ -1508,7 +1544,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>164</v>
       </c>
@@ -1528,7 +1564,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="11" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>165</v>
       </c>
@@ -1548,7 +1584,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
@@ -1564,68 +1600,68 @@
       <c r="E12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12" s="4" t="s">
+      <c r="L12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O12" s="4" t="s">
+      <c r="P12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>6</v>
+      <c r="R12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="V12" s="4" t="s">
+      <c r="W12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="W12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y12" s="4" t="s">
-        <v>6</v>
+      <c r="X12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AB12" s="4" t="s">
+      <c r="AC12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AC12" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AD12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
@@ -1641,68 +1677,68 @@
       <c r="E13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="I13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="4" t="s">
+      <c r="L13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="P13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="Q13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S13" s="4" t="s">
-        <v>6</v>
+      <c r="R13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V13" s="4" t="s">
+      <c r="W13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="W13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y13" s="4" t="s">
-        <v>6</v>
+      <c r="X13" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AB13" s="4" t="s">
+      <c r="AC13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AC13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AD13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
@@ -1718,68 +1754,68 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="I14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M14" s="4" t="s">
+      <c r="L14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O14" s="4" t="s">
+      <c r="P14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="Q14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Q14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="4" t="s">
-        <v>6</v>
+      <c r="R14" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="W14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="W14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y14" s="4" t="s">
-        <v>6</v>
+      <c r="X14" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AB14" s="4" t="s">
+      <c r="AC14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AC14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="AD14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>70</v>
       </c>
@@ -1795,23 +1831,23 @@
       <c r="E15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
@@ -1827,143 +1863,143 @@
       <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="I16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="J16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="K16" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M16" s="4" t="s">
+      <c r="L16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="O16" s="4" t="s">
+      <c r="P16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="P16" s="4" t="s">
+      <c r="Q16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Q16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S16" s="4" t="s">
-        <v>6</v>
+      <c r="R16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="V16" s="4" t="s">
+      <c r="W16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="W16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y16" s="4" t="s">
-        <v>6</v>
+      <c r="X16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AB16" s="4" t="s">
+      <c r="AC16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AC16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE16" s="4" t="s">
-        <v>6</v>
+      <c r="AD16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AH16" s="4" t="s">
+      <c r="AI16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AI16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK16" s="4" t="s">
-        <v>6</v>
+      <c r="AJ16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AL16" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AN16" s="4" t="s">
+      <c r="AO16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AO16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ16" s="4" t="s">
-        <v>6</v>
+      <c r="AP16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AR16" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AT16" s="4" t="s">
+      <c r="AU16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AU16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW16" s="4" t="s">
-        <v>6</v>
+      <c r="AV16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AX16" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AZ16" s="4" t="s">
+      <c r="BA16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="BA16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="BC16" s="4" t="s">
-        <v>6</v>
+      <c r="BB16" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="BD16" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BE16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="BF16" s="4" t="s">
+      <c r="BG16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="BG16" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="BH16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>77</v>
       </c>
@@ -1979,23 +2015,23 @@
       <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H17" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L17" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>79</v>
       </c>
@@ -2011,23 +2047,23 @@
       <c r="E18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H18" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="J18" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>83</v>
       </c>
@@ -2043,38 +2079,38 @@
       <c r="E19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H19" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>6</v>
+      <c r="L19" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="P19" s="4" t="s">
+      <c r="Q19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>89</v>
       </c>
@@ -2090,53 +2126,53 @@
       <c r="E20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="I20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="K20" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>6</v>
+      <c r="L20" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="P20" s="4" t="s">
+      <c r="Q20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>6</v>
+      <c r="R20" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="V20" s="4" t="s">
+      <c r="W20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="W20" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="X20" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>95</v>
       </c>
@@ -2152,143 +2188,143 @@
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>6</v>
+      <c r="L21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="P21" s="4" t="s">
+      <c r="Q21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S21" s="4" t="s">
-        <v>6</v>
+      <c r="R21" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="V21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="V21" s="4" t="s">
+      <c r="W21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="W21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y21" s="4" t="s">
-        <v>6</v>
+      <c r="X21" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="Z21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AB21" s="4" t="s">
+      <c r="AC21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AC21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE21" s="4" t="s">
-        <v>6</v>
+      <c r="AD21" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AF21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AH21" s="4" t="s">
+      <c r="AI21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AI21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK21" s="4" t="s">
-        <v>6</v>
+      <c r="AJ21" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AL21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AN21" s="4" t="s">
+      <c r="AO21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AO21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ21" s="4" t="s">
-        <v>6</v>
+      <c r="AP21" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AR21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT21" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AT21" s="4" t="s">
+      <c r="AU21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AU21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW21" s="4" t="s">
-        <v>6</v>
+      <c r="AV21" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="AX21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AZ21" s="4" t="s">
+      <c r="BA21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="BA21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="BC21" s="4" t="s">
-        <v>6</v>
+      <c r="BB21" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="BD21" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BE21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BF21" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="BF21" s="4" t="s">
+      <c r="BG21" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="BG21" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="BH21" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>99</v>
       </c>
@@ -2304,23 +2340,26 @@
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>6</v>
+      <c r="G22" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J22" s="4" t="s">
+      <c r="K22" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>166</v>
       </c>
@@ -2336,20 +2375,23 @@
       <c r="E23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>6</v>
+      <c r="G23" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="K23" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>104</v>
       </c>
@@ -2365,38 +2407,38 @@
       <c r="E24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H24" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>6</v>
+      <c r="L24" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P24" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="P24" s="4" t="s">
+      <c r="Q24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="Q24" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>108</v>
       </c>
@@ -2412,38 +2454,38 @@
       <c r="E25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H25" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>6</v>
+      <c r="L25" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="P25" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="P25" s="4" t="s">
+      <c r="Q25" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="Q25" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>112</v>
       </c>
@@ -2459,23 +2501,23 @@
       <c r="E26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H26" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="K26" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K26" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>116</v>
       </c>
@@ -2491,23 +2533,23 @@
       <c r="E27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H27" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="K27" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L27" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>118</v>
       </c>
@@ -2523,23 +2565,23 @@
       <c r="E28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H28" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="K28" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L28" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>120</v>
       </c>
@@ -2555,23 +2597,23 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H29" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="J29" s="4" t="s">
+      <c r="K29" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="K29" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L29" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>124</v>
       </c>
@@ -2587,23 +2629,23 @@
       <c r="E30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H30" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="J30" s="4" t="s">
+      <c r="K30" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L30" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>128</v>
       </c>
@@ -2619,23 +2661,23 @@
       <c r="E31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H31" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="K31" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:59" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:60" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>169</v>
       </c>
@@ -2655,7 +2697,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>170</v>
       </c>
@@ -2675,7 +2717,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>171</v>
       </c>
@@ -2695,7 +2737,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>172</v>
       </c>
@@ -2715,7 +2757,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>173</v>
       </c>
@@ -2735,7 +2777,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>174</v>
       </c>
@@ -2755,7 +2797,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>175</v>
       </c>
@@ -2775,7 +2817,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>176</v>
       </c>
@@ -2795,7 +2837,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>177</v>
       </c>
@@ -2815,7 +2857,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>178</v>
       </c>
@@ -2831,20 +2873,20 @@
       <c r="E41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H41" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="K41" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>142</v>
       </c>
@@ -2860,23 +2902,23 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H42" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="K42" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K42" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L42" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>144</v>
       </c>
@@ -2892,23 +2934,23 @@
       <c r="E43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H43" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="J43" s="4" t="s">
+      <c r="K43" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K43" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L43" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>148</v>
       </c>
@@ -2924,23 +2966,23 @@
       <c r="E44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="H44" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="J44" s="4" t="s">
+      <c r="K44" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K44" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L44" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>181</v>
       </c>
@@ -2960,7 +3002,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>182</v>
       </c>
@@ -2980,7 +3022,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>183</v>
       </c>
@@ -3000,7 +3042,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>184</v>
       </c>
@@ -3061,7 +3103,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BG1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:BH1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
